--- a/TaskManager/Handlers/TaskHandlers/Models/Billing/Mapping.xlsx
+++ b/TaskManager/Handlers/TaskHandlers/Models/Billing/Mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="660" windowWidth="22035" windowHeight="12585" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="180" yWindow="660" windowWidth="22035" windowHeight="12585" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="114">
   <si>
     <t>ShAVR</t>
   </si>
@@ -321,16 +321,10 @@
     <t>InvoiceVymManSerNew(SEC).Invoice</t>
   </si>
   <si>
-    <t>Эти данных походу прогружались их выгрузки САП</t>
-  </si>
-  <si>
     <t>Invoice.DocumentType</t>
   </si>
   <si>
     <t>Invoice.VendorName</t>
-  </si>
-  <si>
-    <t>Invoice.Clearing?</t>
   </si>
   <si>
     <r>
@@ -385,6 +379,15 @@
   </si>
   <si>
     <t>Инвойс появляется после выпуска ПО и выполенния работ.</t>
+  </si>
+  <si>
+    <t>Эти данные из САП</t>
+  </si>
+  <si>
+    <t>Так же должен быть выставлен Счет.</t>
+  </si>
+  <si>
+    <t>Дата постинга в САП напимер есть на вкладке Счетов в авр</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -518,6 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -841,10 +845,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="F12:G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +965,7 @@
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -989,13 +993,18 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="A28" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1112,16 +1121,16 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="A23" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1135,7 +1144,9 @@
   </sheetPr>
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1312,8 +1323,8 @@
   </sheetPr>
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,17 +1414,17 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1424,10 +1435,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1450,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1452,7 +1463,7 @@
         <v>72</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H3" s="7"/>
     </row>
@@ -1461,7 +1472,7 @@
         <v>73</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -1557,20 +1568,18 @@
       <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="8" t="s">
         <v>90</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1581,18 +1590,14 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="G18" s="4"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="G19" s="4"/>
       <c r="H19" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1600,16 +1605,21 @@
         <v>206715</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>112</v>
       </c>
     </row>
